--- a/Documentació/fitxer_importació_horaris.xlsx
+++ b/Documentació/fitxer_importació_horaris.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CACAProjectes\CACAHorarisTransports\Documentació\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4388EAF3-6D52-4051-AC04-63FAC6554EEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{999BD9FB-3F93-47B0-A014-4797273F0E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="L4" sheetId="1" r:id="rId1"/>
-    <sheet name="L5" sheetId="2" r:id="rId2"/>
+    <sheet name="fitxer_importació_horaris_L4" sheetId="1" r:id="rId1"/>
+    <sheet name="fitxer_importació_horaris_L5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>L4</t>
   </si>
@@ -210,6 +210,21 @@
   </si>
   <si>
     <t>06:46,07:08,07:30,07:53,08:17,08:41,09:05,09:29,09:53,10:17,10:41,11:05,11:29,11:53,12:17,12:41,13:05,13:29,13:53,14:17,14:41,15:05,15:29,15:53,16:17,16:41,17:05,17:29,17:53,18:17,18:41,19:05,19:29,19:52,20:14,20:36,20:58,21:20,21:41,22:01</t>
+  </si>
+  <si>
+    <t>06:41,07:03,07:25,07:50,08:14,08:38,09:02,09:26,09:50,10:14,10:38,11:02,11:26,11:50,12:14,12:38,13:02,13:26,13:50,14:14,14:38,15:02,15:26,15:50,16:14,16:38,17:02,17:26,17:50,18:14,18:38,19:02,19:26,19:49,20:11,20:33,20:55,21:17,21:37</t>
+  </si>
+  <si>
+    <t>07:03,07:25,07:48,08:13,08:37,09:01,09:25,09:49,10:13,10:37,11:01,11:25,11:49,12:13,12:37,13:01,13:25,13:49,14:13,14:37,15:01,15:25,15:49,16:13,16:37,17:01,17:25,17:49,18:13,18:37,19:01,19:25,19:48,20:11,20:33,20:55,21:17,21:39,21:59</t>
+  </si>
+  <si>
+    <t>06:43,07:05,07:27,07:52,08:16,08:40,09:04,09:28,09:52,10:16,10:40,11:04,11:28,11:52,12:16,12:40,13:04,13:28,13:52,14:16,14:40,15:04,15:28,15:52,16:16,16:40,17:04,17:28,17:52,18:16,18:40,19:04,19:28,19:51,20:13,20:35,20:57,21:19,21:39</t>
+  </si>
+  <si>
+    <t>06:45,07:07,07:29,07:53,08:17,08:41,09:05,09:29,09:53,10:17,10:41,11:05,11:29,11:53,12:17,12:41,13:05,13:29,13:53,14:17,14:41,15:05,15:29,15:53,16:17,16:41,17:05,17:29,17:53,18:17,18:41,19:05,19:29,19:51,20:13,20:35,20:57,21:19,21:41,21:59</t>
+  </si>
+  <si>
+    <t>07:01,07:23,07:46,08:10,08:34,08:58,09:22,09:46,10:10,10:34,10:58,11:22,11:46,12:10,12:34,12:58,13:22,13:46,14:10,14:34,14:58,15:22,15:46,16:10,16:34,16:58,17:22,17:46,18:10,18:34,18:58,19:22,19:45,20:07,20:29,20:51,21:13,21:35,21:57,22:15</t>
   </si>
 </sst>
 </file>
@@ -1058,12 +1073,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,22 +1410,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1426,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1434,15 +1456,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1466,7 +1491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1506,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1546,7 +1571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1587,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1578,23 +1603,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1618,7 +1649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1626,7 +1657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1658,7 +1689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1674,7 +1705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1706,12 +1737,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
